--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linds\Desktop\Liv-stuff\MAESTRIA\PRIMER SEMESTRE\ASISTENCIA\Lab 5 def\ISIS1225-Laboratorio-5\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lina/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB75D800-80A7-4AAA-AE7C-4DF4FF1189B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DE5ECC-B753-4C4F-8EF0-1FF87AB8F3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="01-Data Lab 5" sheetId="1" r:id="rId1"/>
-    <sheet name="02-ARRAY_LIST" sheetId="6" r:id="rId2"/>
-    <sheet name="03-LINKED_LIST" sheetId="13" r:id="rId3"/>
-    <sheet name="04-Selection Sort" sheetId="8" r:id="rId4"/>
-    <sheet name="05-Merge Sort" sheetId="14" r:id="rId5"/>
+    <sheet name="01-Data Lab 4" sheetId="1" r:id="rId1"/>
+    <sheet name="02-Insertion Sort" sheetId="8" r:id="rId2"/>
+    <sheet name="03-Selection Sort" sheetId="14" r:id="rId3"/>
+    <sheet name="04-Shell Sort" sheetId="26" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,35 +39,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Porcentaje de la muestra [pct]</t>
   </si>
   <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Dax-Regular"/>
-      </rPr>
-      <t>amaño de la muestra (ARRAY_LIST)</t>
-    </r>
+    <t>Tamaño de la muestra (ARRAY_LIST)</t>
   </si>
   <si>
     <t>Tamaño de la muestra (LINKED_LIST)</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>Tamaño de la muestra (especificar array o linked)</t>
   </si>
   <si>
-    <t>Selection Sort [ms]</t>
+    <t>TIEMPOS DE EJECUCIÓN INSERTION SORT[ms]</t>
   </si>
   <si>
-    <t>Merge Sort [ms]</t>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Array List</t>
+  </si>
+  <si>
+    <t>TIEMPOS DE EJECUCIÓN SELECTION SORT[ms]</t>
+  </si>
+  <si>
+    <t>TIEMPOS DE EJECUCIÓN SHELL SORT[ms]</t>
   </si>
 </sst>
 </file>
@@ -109,30 +107,56 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Dax-Regular"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Dax-Regular"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF69E76"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1F8F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -140,50 +164,246 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -193,22 +413,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color rgb="FF000000"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -218,66 +441,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -296,17 +463,21 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -316,17 +487,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color rgb="FF000000"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -427,8 +591,130 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC1F8F3"/>
+      <color rgb="FF7FF9EA"/>
+      <color rgb="FF73FDD6"/>
+      <color rgb="FFF69E76"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -443,1691 +729,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Comparación de tiempos de ejecucion con ARRAY_LIST</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2031634608723763"/>
-          <c:y val="1.2121212121212121E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1237011337659039"/>
-          <c:y val="0.1332829078183409"/>
-          <c:w val="0.84440367608007938"/>
-          <c:h val="0.74534303666587132"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 5'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11909541182718729"/>
-                  <c:y val="-2.3553328561202503E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EA19-4908-9336-CD0E2C6ECFDA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 5'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.0620549569061354E-2"/>
-                  <c:y val="-3.5983545576759562E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-50BD-409F-AD4F-AE6565325CF2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 5'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Column1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$E$2:$E$10</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0662-4A10-BB27-BF2CF30161F7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="696671312"/>
-        <c:axId val="1833162896"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="696671312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tamaño</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de la muestra [Num. Elementos]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1833162896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1833162896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tiempo</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de ejecución [ms]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696671312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.4324243193940923E-2"/>
-          <c:y val="0.91893867811978047"/>
-          <c:w val="0.95774447548895103"/>
-          <c:h val="6.8940109759007398E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Comparación de tiempos de ejecucion con LINKED_LIST</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2031634608723763"/>
-          <c:y val="1.2121212121212121E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1237011337659039"/>
-          <c:y val="0.1332829078183409"/>
-          <c:w val="0.84440367608007938"/>
-          <c:h val="0.74534303666587132"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 5'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.11909541182718729"/>
-                  <c:y val="-2.3553328561202503E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$C$13:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7ACA-4F6D-A3D9-CBDDAE5EDD6E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 5'!$D$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.8759881488552017E-2"/>
-                  <c:y val="-2.9996501429511446E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$D$13:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7ACA-4F6D-A3D9-CBDDAE5EDD6E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 5'!$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Column1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 5'!$E$13:$E$20</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7ACA-4F6D-A3D9-CBDDAE5EDD6E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="696671312"/>
-        <c:axId val="1833162896"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="696671312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tamaño</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de la muestra [Num. Elementos]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1833162896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1833162896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tiempo</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de ejecución [ms]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696671312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.4324243193940923E-2"/>
-          <c:y val="0.91893867811978047"/>
-          <c:w val="0.95774447548895103"/>
-          <c:h val="6.8940109759007398E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2163,7 +765,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Selection Sort</a:t>
+              <a:t> Insertion Sort</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2209,11 +811,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 5'!$C$1</c:f>
+              <c:f>'01-Data Lab 4'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection Sort [ms]</c:v>
+                  <c:v>Array List</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2294,10 +896,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$2:$A$10</c:f>
+              <c:f>'01-Data Lab 4'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -2327,10 +929,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 5'!$C$2:$C$10</c:f>
+              <c:f>'01-Data Lab 4'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2346,11 +948,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 5'!$C$12</c:f>
+              <c:f>'01-Data Lab 4'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection Sort [ms]</c:v>
+                  <c:v>Linked List</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2431,7 +1033,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$13:$A$20</c:f>
+              <c:f>'01-Data Lab 4'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2464,7 +1066,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 5'!$C$13:$C$20</c:f>
+              <c:f>'01-Data Lab 4'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2806,10 +1408,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2845,9 +1447,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Merge Sort</a:t>
+              <a:t> Selection</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t> Sort</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2891,11 +1496,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 5'!$D$1</c:f>
+              <c:f>'01-Data Lab 4'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Merge Sort [ms]</c:v>
+                  <c:v>Array List</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2976,10 +1581,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$2:$A$10</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -3009,10 +1614,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 5'!$D$2:$D$10</c:f>
+              <c:f>'01-Data Lab 4'!$C$14:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3028,11 +1633,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 5'!$D$12</c:f>
+              <c:f>'01-Data Lab 4'!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Merge Sort [ms]</c:v>
+                  <c:v>Linked List</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3113,7 +1718,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 5'!$A$13:$A$20</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3146,7 +1751,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 5'!$D$13:$D$20</c:f>
+              <c:f>'01-Data Lab 4'!$D$14:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3157,6 +1762,688 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-80E6-4C96-B542-B32CC3AB919F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de tiempos de ejecucion Sell</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data Lab 4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1363811854896437"/>
+                  <c:y val="-3.2945200031814204E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-593D-443F-9CD6-04EF414BEDDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data Lab 4'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.593553005287829E-2"/>
+                  <c:y val="0.12376727909011373"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-593D-443F-9CD6-04EF414BEDDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3608,46 +2895,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5196,547 +4443,11 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EAD1D623-F0B6-4C1A-913F-35E2F001B69E}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FFC1F8F3"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5745,9 +4456,24 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EF2FF808-7ED0-47FB-B864-504F6F16AA8A}">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1BECD7C-0E68-4F70-B3B6-C22C36A0C26A}">
+  <sheetPr>
+    <tabColor rgb="FFF69E76"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5760,73 +4486,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8672454" cy="6279444"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8672454" cy="6279444"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D209CB7-6B9C-47D1-9CA7-0D240F42F3EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8672513" cy="6281738"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5855,11 +4515,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8672513" cy="6281738"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5888,40 +4548,81 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B0B28A-DE5E-E347-1DCC-EBC3E818A846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:E9" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A2:D10" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Merge Sort [ms]"/>
-    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Array List" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Linked List" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A12:E20" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A12:E20" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:D21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A13:D21" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="4">
       <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Merge Sort [ms]"/>
-    <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Array List" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Linked List" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -6217,248 +4918,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.46484375" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
+    <col min="6" max="12" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="27.75">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="F1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="33" thickBot="1">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="13.9">
-      <c r="A2" s="10">
+    <row r="3" spans="1:9" s="2" customFormat="1">
+      <c r="A3" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B3" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="12"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="15">
+        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <v>50</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="13.9">
-      <c r="A3" s="10">
+    <row r="4" spans="1:9" s="2" customFormat="1">
+      <c r="A4" s="8">
         <v>0.05</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B4" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="12"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="5">
+        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <v>500</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="17"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="8">
         <v>0.1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="15">
+        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <v>1000</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10">
+    <row r="6" spans="1:9">
+      <c r="A6" s="8">
         <v>0.2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B6" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <v>2000</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="17"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+    <row r="7" spans="1:9">
+      <c r="A7" s="8">
         <v>0.3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="15">
+        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <v>3000</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
+    <row r="8" spans="1:9">
+      <c r="A8" s="8">
         <v>0.5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="5">
+        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <v>5000</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="17"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
+    <row r="9" spans="1:9">
+      <c r="A9" s="8">
         <v>0.8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="5">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="15">
+        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <v>8000</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
+    <row r="10" spans="1:9" ht="16" thickBot="1">
+      <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="11">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <v>10000</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="18"/>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="27.75">
-      <c r="A12" s="4" t="s">
+    <row r="11" spans="1:9" ht="16" thickBot="1">
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="32">
+      <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="13.9">
-      <c r="A13" s="10">
+    <row r="14" spans="1:9" s="2" customFormat="1">
+      <c r="A14" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B14" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="13.9">
-      <c r="A14" s="10">
+    <row r="15" spans="1:9" s="2" customFormat="1">
+      <c r="A15" s="8">
         <v>0.05</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B15" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="12"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
+    <row r="16" spans="1:9">
+      <c r="A16" s="8">
         <v>0.1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="9"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10">
+    <row r="17" spans="1:9">
+      <c r="A17" s="8">
         <v>0.2</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B17" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="9"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
+    <row r="18" spans="1:9">
+      <c r="A18" s="8">
         <v>0.3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="9"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
+    <row r="19" spans="1:9">
+      <c r="A19" s="8">
         <v>0.5</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="9"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
+    <row r="20" spans="1:9">
+      <c r="A20" s="8">
         <v>0.8</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="5">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="9"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
+    <row r="21" spans="1:9" ht="16" thickBot="1">
+      <c r="A21" s="10">
         <v>1</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="11">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F12:I12"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -6468,8 +5319,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e7eefc5f66e7d51449543297ddde059">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df8efc3b1b447b14ec56bc155bd746d7" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
     <xsd:import namespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
     <xsd:element name="properties">
@@ -6558,7 +5409,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a38e7027-190f-4f90-8839-9f8250567d86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a38e7027-190f-4f90-8839-9f8250567d86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -6579,7 +5430,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -6598,7 +5449,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -6626,8 +5477,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -6717,15 +5568,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
@@ -6838,8 +5680,17 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEEE7F2-DD9A-42EF-8F73-A92FC7ED8D52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -6858,26 +5709,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Uniandes\EDA\Reestructura\ISIS1225-Laboratorio-5\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lina/Library/Mobile Documents/com~apple~CloudDocs/Universidad/EDA/ISIS1225-Laboratorio-5/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C077633-6DB4-480A-8DD5-0CF440602032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26970" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="01-Data Lab 4" sheetId="1" r:id="rId1"/>
-    <sheet name="02-Insertion Sort" sheetId="8" r:id="rId2"/>
-    <sheet name="03-Selection Sort" sheetId="14" r:id="rId3"/>
-    <sheet name="04-Shell Sort" sheetId="26" r:id="rId4"/>
-    <sheet name="05-Merge Sort" sheetId="27" r:id="rId5"/>
-    <sheet name="06-Quick Sort" sheetId="28" r:id="rId6"/>
+    <sheet name="01-Data" sheetId="1" r:id="rId1"/>
+    <sheet name="02-Array List" sheetId="27" r:id="rId2"/>
+    <sheet name="03-Single Linked List" sheetId="28" r:id="rId3"/>
+    <sheet name="04-Insertion Sort" sheetId="30" r:id="rId4"/>
+    <sheet name="05-Selection Sort" sheetId="29" r:id="rId5"/>
+    <sheet name="06-Shell Sort" sheetId="31" r:id="rId6"/>
+    <sheet name="07-Merge Sort" sheetId="8" r:id="rId7"/>
+    <sheet name="08-Quick Sort" sheetId="14" r:id="rId8"/>
+    <sheet name="09-Bests" sheetId="26" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Porcentaje de la muestra [pct]</t>
   </si>
@@ -50,35 +55,59 @@
     <t>Tamaño de la muestra (LINKED_LIST)</t>
   </si>
   <si>
-    <t>Tamaño de la muestra (especificar array o linked)</t>
+    <t xml:space="preserve">Algoritmo iterativo (especificar) </t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN INSERTION SORT[ms]</t>
+    <t>Algoritmo recursivo (especificar)</t>
   </si>
   <si>
-    <t>Linked List</t>
+    <t>TIEMPOS DE EJECUCIÓN MEJORES ALGORITMOS [ms]</t>
   </si>
   <si>
-    <t>Array List</t>
+    <t xml:space="preserve">Tamaño de la muestra </t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN SELECTION SORT[ms]</t>
+    <t>Insertion Sort Array List</t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN SHELL SORT[ms]</t>
+    <t>Selection Sort Array List</t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN MERGE SORT[ms]</t>
+    <t>Shell Sort Array List</t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN QUICK SORT[ms]</t>
+    <t>Merge Sort Array List</t>
+  </si>
+  <si>
+    <t>Quick Sort Array List</t>
+  </si>
+  <si>
+    <t>Insertion Sort Linked List</t>
+  </si>
+  <si>
+    <t>Selection Sort Linked List</t>
+  </si>
+  <si>
+    <t>Shell Sort Linked List</t>
+  </si>
+  <si>
+    <t>Merge Sort Linked List</t>
+  </si>
+  <si>
+    <t>Quick Sort Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIEMPOS DE EJECUCIÓN ARRAY LIST  [ms] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIEMPOS DE EJECUCIÓN SINGLE LINKED LIST [ms] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,30 +153,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Dax-Regular"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF69E76"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -157,24 +169,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC1F8F3"/>
+        <fgColor rgb="FF88AEFD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2B2E3"/>
+        <fgColor rgb="FFAEFDF9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAB0AA"/>
+        <fgColor rgb="FFF3B2EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -288,25 +300,14 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -314,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +334,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -342,13 +346,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,68 +361,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
     <dxf>
       <font>
         <b/>
@@ -442,6 +444,48 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -451,6 +495,151 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -520,6 +709,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -544,6 +743,79 @@
         </patternFill>
       </fill>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -581,21 +853,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -613,7 +881,25 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -664,294 +950,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
+        <left style="medium">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
         <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1021,12 +1029,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFEAB0AA"/>
-      <color rgb="FFE2B2E3"/>
-      <color rgb="FFC1F8F3"/>
-      <color rgb="FF7FF9EA"/>
-      <color rgb="FF73FDD6"/>
-      <color rgb="FFF69E76"/>
+      <color rgb="FFF3B2EE"/>
+      <color rgb="FFAEFDF9"/>
+      <color rgb="FF88AEFD"/>
+      <color rgb="FFF4AEC4"/>
+      <color rgb="FFF7A497"/>
+      <color rgb="FFFFC67C"/>
+      <color rgb="FFEBE97C"/>
+      <color rgb="FF9EC4F3"/>
+      <color rgb="FF97F9C0"/>
+      <color rgb="FFE5F88A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1041,6 +1053,1691 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de tiempos de ejecucion en</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Array List</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0099-B345-B320-0124A2BF1CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0099-B345-B320-0124A2BF1CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell Sort Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0099-B345-B320-0124A2BF1CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0099-B345-B320-0124A2BF1CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0099-B345-B320-0124A2BF1CBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de tiempos de ejecucion en</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Single Linked List</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$C$14:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF58-1640-BEE2-9E386995DA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$D$14:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-AF58-1640-BEE2-9E386995DA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell Sort Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$E$14:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-AF58-1640-BEE2-9E386995DA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$F$14:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-AF58-1640-BEE2-9E386995DA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$G$14:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-AF58-1640-BEE2-9E386995DA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1110,7 +2807,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1125,11 +2822,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 4'!$C$2</c:f>
+              <c:f>'01-Data'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Array List</c:v>
+                  <c:v>Insertion Sort Array List</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,59 +2855,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$3:$A$10</c:f>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1243,7 +2890,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$C$3:$C$10</c:f>
+              <c:f>'01-Data'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1253,7 +2900,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
+              <c16:uniqueId val="{00000001-14CC-584A-A8A5-9ED0D12B689E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1262,11 +2909,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 4'!$D$2</c:f>
+              <c:f>'01-Data'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Linked List</c:v>
+                  <c:v>Insertion Sort Linked List</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1295,59 +2942,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$3:$A$10</c:f>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1380,7 +2977,1753 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$D$3:$D$10</c:f>
+              <c:f>'01-Data'!$C$14:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-14CC-584A-A8A5-9ED0D12B689E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de tiempos de ejecucion para</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Merge Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A984-C74C-AB00-74A175F36691}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$D$14:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A984-C74C-AB00-74A175F36691}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de tiempos de ejecucion para</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Merge Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell Sort Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE37-7D40-BDB1-A7943621B7F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell Sort Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$E$14:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE37-7D40-BDB1-A7943621B7F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de tiempos de ejecucion para</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Merge Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data'!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data'!$F$14:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1482,7 +4825,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1520,7 +4863,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -1599,7 +4942,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1637,7 +4980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -1679,7 +5022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1716,13 +5059,13 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1757,15 +5100,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de tiempos de ejecucion para</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Selection</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t> Sort</a:t>
+              <a:t>Comparación de tiempos de ejecucion para Quick Sort</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1795,7 +5130,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1810,11 +5145,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 4'!$C$13</c:f>
+              <c:f>'01-Data'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Array List</c:v>
+                  <c:v>Quick Sort Array List</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1843,59 +5178,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
+              <c:f>'01-Data'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1928,7 +5213,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$C$14:$C$21</c:f>
+              <c:f>'01-Data'!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1947,11 +5232,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 4'!$D$13</c:f>
+              <c:f>'01-Data'!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Linked List</c:v>
+                  <c:v>Quick Sort Linked List</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1980,59 +5265,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
+              <c:f>'01-Data'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2065,7 +5300,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$D$14:$D$21</c:f>
+              <c:f>'01-Data'!$G$14:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2167,7 +5402,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2205,7 +5440,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -2284,7 +5519,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2322,7 +5557,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -2364,7 +5599,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2401,13 +5636,13 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2442,11 +5677,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de tiempos de ejecucion Sell</a:t>
+              <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Sort</a:t>
+              <a:t> los mejores ordenamientos</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2477,7 +5712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2492,11 +5727,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 4'!$H$2</c:f>
+              <c:f>'01-Data'!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Array List</c:v>
+                  <c:v>Algoritmo iterativo (especificar) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2525,59 +5760,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$F$3:$F$10</c:f>
+              <c:f>'01-Data'!$A$25:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2610,7 +5795,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$H$3:$H$10</c:f>
+              <c:f>'01-Data'!$C$25:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2629,11 +5814,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'01-Data Lab 4'!$I$2</c:f>
+              <c:f>'01-Data'!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Linked List</c:v>
+                  <c:v>Algoritmo recursivo (especificar)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2662,59 +5847,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$F$3:$F$10</c:f>
+              <c:f>'01-Data'!$A$25:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2747,7 +5882,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$I$3:$I$10</c:f>
+              <c:f>'01-Data'!$D$25:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2849,7 +5984,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2887,7 +6022,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -2966,7 +6101,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3004,7 +6139,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3046,7 +6181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3083,1371 +6218,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de tiempos de ejecucion Merge</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Sort</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 4'!$H$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Array List</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$F$14:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$H$14:$H$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FBFE-4DE8-B6E0-DE4FEFDE004A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 4'!$I$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Linked List</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$F$14:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$I$14:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FBFE-4DE8-B6E0-DE4FEFDE004A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1328118000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tamaño</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de la muestra [Num. elementos]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328121328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1328121328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tiempo de Ejecución [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328118000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de tiempos de ejecucion Quick</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Sort</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 4'!$C$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Array List</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$25:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$C$25:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E3F-4D83-B3F0-06019FFE22C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 4'!$D$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Linked List</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$25:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$D$25:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0E3F-4D83-B3F0-06019FFE22C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1328118000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tamaño</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de la muestra [Num. elementos]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328121328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1328121328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tiempo de Ejecución [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328118000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4653,6 +6424,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7233,13 +9124,1561 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C2726E69-05EF-F94F-9733-D104A96D3223}">
   <sheetPr>
-    <tabColor rgb="FFC1F8F3"/>
+    <tabColor rgb="FF9EC4F3"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7247,12 +10686,12 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EF2FF808-7ED0-47FB-B864-504F6F16AA8A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0E13812-9ADD-0F43-92AA-F0B8767B740B}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor rgb="FFAEFDF9"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="118" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7260,9 +10699,9 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1BECD7C-0E68-4F70-B3B6-C22C36A0C26A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2BF707E0-7C3F-6144-AF44-0208BC1DF2A5}">
   <sheetPr>
-    <tabColor rgb="FFF69E76"/>
+    <tabColor rgb="FF97F9C0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7273,9 +10712,9 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D61CD20E-8C47-43B3-BEC2-00339C536135}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{88350B94-F1CD-0A46-A75A-91055D876A07}">
   <sheetPr>
-    <tabColor rgb="FFE2B2E3"/>
+    <tabColor rgb="FFE5F88A"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7286,9 +10725,48 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0DB576FC-CFC3-493F-9CD6-9BF52318F22D}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{83D92859-590F-6745-B7CA-027B680E4A3C}">
   <sheetPr>
-    <tabColor rgb="FFEAB0AA"/>
+    <tabColor rgb="FFEBE97C"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
+  <sheetPr>
+    <tabColor rgb="FFFFC67C"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EF2FF808-7ED0-47FB-B864-504F6F16AA8A}">
+  <sheetPr>
+    <tabColor rgb="FFF7A497"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1BECD7C-0E68-4F70-B3B6-C22C36A0C26A}">
+  <sheetPr>
+    <tabColor rgb="FFF3B2EE"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7302,7 +10780,172 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8676640" cy="6289040"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D27857-DC27-E5E3-A245-FDC02D96740B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29B2B2F-5691-4E94-B8FD-4DF712B95E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B92FAFC-D92F-CA41-F7D8-F3DEB05B4A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7882696A-C825-7467-9E8F-207E5A8AB0D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC396501-4E25-E173-ED33-74369A4821CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7331,11 +10974,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7364,11 +11007,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8674100" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -7397,146 +11040,82 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CAA8E9-5D32-43B0-9370-53D61A8522F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="A2:G10" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="22">
+      <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Insertion Sort Array List" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Selection Sort Array List" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{FDF1E40E-ED06-204B-B917-455DE8107EED}" name="Shell Sort Array List" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{E586F32D-4B44-B84C-A99C-280F925FA781}" name="Merge Sort Array List" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{E6C94163-D0DC-9E42-A39F-769A20C92F2E}" name="Quick Sort Array List" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D024CFB-96DA-4763-A702-F3EB8C939D2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:G21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
+  <autoFilter ref="A13:G21" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="12">
+      <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A2:D10" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A24:D32" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="20">
-      <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="7">
+      <calculatedColumnFormula>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Array List" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Linked List" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:D21" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A13:D21" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="14">
-      <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Array List" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Linked List" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87C8722B-DD68-4653-A5A0-21E5FA4E5167}" name="Table134" displayName="Table134" ref="F13:I21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="F13:I21" xr:uid="{87C8722B-DD68-4653-A5A0-21E5FA4E5167}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C07ABC3E-F8C1-4672-A7B8-F11CF0E5A083}" name="Porcentaje de la muestra [pct]" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4E1C97DA-811C-4F4D-AD84-0E8397D4D278}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="8">
-      <calculatedColumnFormula>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{699BF631-EF19-4B17-9C43-D855DD8713A3}" name="Array List" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F753368E-60C6-4559-AAB2-8D5D39D13D08}" name="Linked List" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{35AE231F-BBB3-413D-8E8D-6DED34128222}" name="Table135" displayName="Table135" ref="A24:D32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A24:D32" xr:uid="{35AE231F-BBB3-413D-8E8D-6DED34128222}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3AE7D498-7B8C-404E-94ED-AC1F2545D8BA}" name="Porcentaje de la muestra [pct]" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{8889E6E7-DD99-4C87-ADCA-7FD6746EF539}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="2">
-      <calculatedColumnFormula>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{996BC463-8C92-4516-B4BC-F2A077D7A2EF}" name="Array List" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{6921D7A0-1F93-44BF-B532-EF08353E773B}" name="Linked List" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FCABA3BF-6045-0E48-BB37-6E396D6328EB}" name="Algoritmo iterativo (especificar) " dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D7C2D6B9-4643-7546-86E6-D34E7A0D57D5}" name="Algoritmo recursivo (especificar)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7574,7 +11153,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7680,7 +11259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7822,7 +11401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7830,36 +11409,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:I32"/>
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D32"/>
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
-    <col min="6" max="12" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
+    <col min="6" max="11" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="22" t="s">
-        <v>4</v>
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="45.75" thickBot="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -7867,46 +11447,36 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>5</v>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>0</v>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>3</v>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>5</v>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="7">
+    <row r="3" spans="1:8" s="2" customFormat="1">
+      <c r="A3" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="27">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G3" s="13">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>50</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="7">
         <v>0.05</v>
       </c>
@@ -7914,20 +11484,13 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="5">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>500</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="14"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="7">
         <v>0.1</v>
       </c>
@@ -7935,20 +11498,13 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="13">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>1000</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="7">
         <v>0.2</v>
       </c>
@@ -7956,20 +11512,13 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="5">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>2000</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>0.3</v>
       </c>
@@ -7977,20 +11526,13 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="13">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>3000</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>0.5</v>
       </c>
@@ -7998,20 +11540,13 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="5">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>5000</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="7">
         <v>0.8</v>
       </c>
@@ -8019,84 +11554,66 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="13">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>8000</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8" ht="16" thickBot="1">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>10000</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="15"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+    <row r="11" spans="1:8">
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>7</v>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A12" s="36" t="s">
+        <v>18</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="F12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="30">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+      <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
+      <c r="C13" s="16" t="s">
+        <v>12</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>5</v>
+      <c r="D13" s="16" t="s">
+        <v>13</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>0</v>
+      <c r="E13" s="16" t="s">
+        <v>14</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>2</v>
+      <c r="F13" s="16" t="s">
+        <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>6</v>
+      <c r="G13" s="30" t="s">
+        <v>16</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8104,20 +11621,14 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G14" s="5">
-        <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>50</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="14"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1">
+    <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="7">
         <v>0.05</v>
       </c>
@@ -8125,20 +11636,14 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="G15" s="5">
-        <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>500</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="7">
         <v>0.1</v>
       </c>
@@ -8146,20 +11651,14 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="5">
-        <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>1000</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="14"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="7">
         <v>0.2</v>
       </c>
@@ -8167,20 +11666,14 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="5">
-        <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>2000</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="7">
         <v>0.3</v>
       </c>
@@ -8188,20 +11681,14 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="5">
-        <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>3000</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="14"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="7">
         <v>0.5</v>
       </c>
@@ -8209,20 +11696,14 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="5">
-        <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>5000</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="14"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="7">
         <v>0.8</v>
       </c>
@@ -8230,166 +11711,151 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="G20" s="5">
-        <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>8000</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="14"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A21" s="8">
+    <row r="21" spans="1:8" ht="16" thickBot="1">
+      <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="8">
-        <v>1</v>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" thickBot="1"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="31" t="s">
+        <v>5</v>
       </c>
-      <c r="G21" s="9">
-        <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>10000</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="15"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:9">
-      <c r="A23" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:8" ht="39" customHeight="1" thickBot="1">
+      <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>5</v>
+      <c r="C24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7">
+    <row r="25" spans="1:8">
+      <c r="A25" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B25" s="5">
-        <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+      <c r="B25" s="12">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>50</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7">
+    <row r="26" spans="1:8">
+      <c r="A26" s="19">
         <v>0.05</v>
       </c>
       <c r="B26" s="5">
-        <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>500</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="7">
+    <row r="27" spans="1:8">
+      <c r="A27" s="18">
         <v>0.1</v>
       </c>
-      <c r="B27" s="5">
-        <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+      <c r="B27" s="12">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>1000</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="7">
+    <row r="28" spans="1:8">
+      <c r="A28" s="19">
         <v>0.2</v>
       </c>
       <c r="B28" s="5">
-        <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>2000</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7">
+    <row r="29" spans="1:8">
+      <c r="A29" s="18">
         <v>0.3</v>
       </c>
-      <c r="B29" s="5">
-        <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+      <c r="B29" s="12">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>3000</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7">
+    <row r="30" spans="1:8">
+      <c r="A30" s="19">
         <v>0.5</v>
       </c>
       <c r="B30" s="5">
-        <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>5000</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="7">
+    <row r="31" spans="1:8">
+      <c r="A31" s="18">
         <v>0.8</v>
       </c>
-      <c r="B31" s="5">
-        <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+      <c r="B31" s="12">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>8000</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A32" s="8">
+    <row r="32" spans="1:8">
+      <c r="A32" s="19">
         <v>1</v>
       </c>
-      <c r="B32" s="9">
-        <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
+      <c r="B32" s="5">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>10000</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F12:I12"/>
+  <mergeCells count="3">
     <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:G12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8517,8 +11983,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e7eefc5f66e7d51449543297ddde059">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df8efc3b1b447b14ec56bc155bd746d7" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
     <xsd:import namespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
     <xsd:element name="properties">
@@ -8607,7 +12073,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a38e7027-190f-4f90-8839-9f8250567d86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a38e7027-190f-4f90-8839-9f8250567d86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -8628,7 +12094,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -8647,7 +12113,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -8675,8 +12141,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -8776,22 +12242,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEEE7F2-DD9A-42EF-8F73-A92FC7ED8D52}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,157 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lina/Library/Mobile Documents/com~apple~CloudDocs/Universidad/EDA/ISIS1225-Laboratorio-5/Docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="01-Data" sheetId="1" r:id="rId1"/>
-    <sheet name="02-Array List" sheetId="27" r:id="rId2"/>
-    <sheet name="03-Single Linked List" sheetId="28" r:id="rId3"/>
-    <sheet name="04-Insertion Sort" sheetId="30" r:id="rId4"/>
-    <sheet name="05-Selection Sort" sheetId="29" r:id="rId5"/>
-    <sheet name="06-Shell Sort" sheetId="31" r:id="rId6"/>
-    <sheet name="07-Merge Sort" sheetId="8" r:id="rId7"/>
-    <sheet name="08-Quick Sort" sheetId="14" r:id="rId8"/>
-    <sheet name="09-Bests" sheetId="26" r:id="rId9"/>
+    <sheet name="01-Data" sheetId="1" state="visible" r:id="rId4"/>
+    <sheet name="02-Array List" sheetId="2" state="visible" r:id="rId5"/>
+    <sheet name="03-Single Linked List" sheetId="3" state="visible" r:id="rId6"/>
+    <sheet name="04-Insertion Sort" sheetId="4" state="visible" r:id="rId7"/>
+    <sheet name="05-Selection Sort" sheetId="5" state="visible" r:id="rId8"/>
+    <sheet name="06-Shell Sort" sheetId="6" state="visible" r:id="rId9"/>
+    <sheet name="07-Merge Sort" sheetId="7" state="visible" r:id="rId10"/>
+    <sheet name="08-Quick Sort" sheetId="8" state="visible" r:id="rId11"/>
+    <sheet name="09-Bests" sheetId="9" state="visible" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>Porcentaje de la muestra [pct]</t>
+    <t xml:space="preserve">TIEMPOS DE EJECUCIÓN ARRAY LIST  [ms] </t>
   </si>
   <si>
-    <t>Tamaño de la muestra (ARRAY_LIST)</t>
+    <t xml:space="preserve">Porcentaje de la muestra [pct]</t>
   </si>
   <si>
-    <t>Tamaño de la muestra (LINKED_LIST)</t>
+    <t xml:space="preserve">Tamaño de la muestra (ARRAY_LIST)</t>
   </si>
   <si>
-    <t xml:space="preserve">Algoritmo iterativo (especificar) </t>
+    <t xml:space="preserve">Insertion Sort Array List</t>
   </si>
   <si>
-    <t>Algoritmo recursivo (especificar)</t>
+    <t xml:space="preserve">Selection Sort Array List</t>
   </si>
   <si>
-    <t>TIEMPOS DE EJECUCIÓN MEJORES ALGORITMOS [ms]</t>
+    <t xml:space="preserve">Shell Sort Array List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort Array List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Sort Array List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIEMPOS DE EJECUCIÓN SINGLE LINKED LIST [ms] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaño de la muestra (LINKED_LIST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion Sort Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection Sort Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell Sort Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Sort Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIEMPOS DE EJECUCIÓN MEJORES ALGORITMOS [ms]</t>
   </si>
   <si>
     <t xml:space="preserve">Tamaño de la muestra </t>
   </si>
   <si>
-    <t>Insertion Sort Array List</t>
+    <t xml:space="preserve">Algoritmo iterativo (Shell) </t>
   </si>
   <si>
-    <t>Selection Sort Array List</t>
-  </si>
-  <si>
-    <t>Shell Sort Array List</t>
-  </si>
-  <si>
-    <t>Merge Sort Array List</t>
-  </si>
-  <si>
-    <t>Quick Sort Array List</t>
-  </si>
-  <si>
-    <t>Insertion Sort Linked List</t>
-  </si>
-  <si>
-    <t>Selection Sort Linked List</t>
-  </si>
-  <si>
-    <t>Shell Sort Linked List</t>
-  </si>
-  <si>
-    <t>Merge Sort Linked List</t>
-  </si>
-  <si>
-    <t>Quick Sort Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIEMPOS DE EJECUCIÓN ARRAY LIST  [ms] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIEMPOS DE EJECUCIÓN SINGLE LINKED LIST [ms] </t>
+    <t xml:space="preserve">Algoritmo recursivo (Quick)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Dax-Regular"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
       <name val="Dax-Regular"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Dax-Regular"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -163,561 +136,297 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF88AEFD"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAEFDF9"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3B2EE"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="12">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="none"/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="3" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="6" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="5" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="5" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="11.000000"/>
         <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="10" formatCode="0.00%"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <border>
         <left style="medium">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
+        <vertical style="none"/>
+        <horizontal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -725,256 +434,115 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="11.000000"/>
         <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="11.000000"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <border>
+        <left style="none"/>
         <right style="medium">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top style="none"/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
+        <vertical style="none"/>
+        <horizontal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -982,65 +550,206 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="11.000000"/>
         <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="10" formatCode="0.00%"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <border>
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
+        <vertical style="none"/>
+        <horizontal style="none"/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+      <border>
+        <left style="none"/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="none"/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
+        <vertical style="none"/>
+        <horizontal style="none"/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="0.00%"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFF3B2EE"/>
-      <color rgb="FFAEFDF9"/>
-      <color rgb="FF88AEFD"/>
-      <color rgb="FFF4AEC4"/>
-      <color rgb="FFF7A497"/>
-      <color rgb="FFFFC67C"/>
-      <color rgb="FFEBE97C"/>
-      <color rgb="FF9EC4F3"/>
-      <color rgb="FF97F9C0"/>
-      <color rgb="FFE5F88A"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1053,12 +762,12 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1073,7 +782,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1090,15 +799,19 @@
               <a:t>Comparación de tiempos de ejecucion en</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Array List</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1110,7 +823,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1146,7 +859,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1158,7 +874,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1177,7 +896,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -1213,11 +932,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0099-B345-B320-0124A2BF1CBD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1233,7 +947,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1245,7 +962,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1264,7 +984,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -1300,11 +1020,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0099-B345-B320-0124A2BF1CBD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1320,7 +1035,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1332,7 +1050,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1351,7 +1072,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -1387,11 +1108,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0099-B345-B320-0124A2BF1CBD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1407,7 +1123,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -1419,7 +1138,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1438,7 +1160,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -1474,11 +1196,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0099-B345-B320-0124A2BF1CBD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1494,7 +1211,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -1506,7 +1226,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -1525,7 +1248,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -1561,19 +1284,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0099-B345-B320-0124A2BF1CBD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -1586,7 +1305,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1606,7 +1328,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1623,14 +1345,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -1642,7 +1369,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1662,7 +1389,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -1680,7 +1410,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1707,7 +1437,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1727,7 +1460,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1743,11 +1476,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -1759,7 +1497,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1779,7 +1517,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -1797,7 +1538,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1816,7 +1557,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1826,8 +1570,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1839,7 +1587,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1857,16 +1605,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -1895,12 +1643,12 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1915,7 +1663,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1932,15 +1680,19 @@
               <a:t>Comparación de tiempos de ejecucion en</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Single Linked List</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1952,7 +1704,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1988,7 +1740,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -2000,7 +1755,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2019,7 +1777,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2055,11 +1813,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AF58-1640-BEE2-9E386995DA5A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2075,7 +1828,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -2087,7 +1843,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -2106,7 +1865,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2142,11 +1901,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-AF58-1640-BEE2-9E386995DA5A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2162,7 +1916,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2174,7 +1931,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2193,7 +1953,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2229,11 +1989,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-AF58-1640-BEE2-9E386995DA5A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2249,7 +2004,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2261,7 +2019,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2280,7 +2041,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2316,11 +2077,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-AF58-1640-BEE2-9E386995DA5A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2336,7 +2092,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -2348,7 +2107,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2367,7 +2129,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2403,19 +2165,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-AF58-1640-BEE2-9E386995DA5A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -2428,7 +2186,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2448,7 +2209,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2465,15 +2226,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -2485,7 +2250,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2505,7 +2270,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -2523,7 +2291,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2550,7 +2318,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2570,7 +2341,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2586,11 +2357,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -2602,7 +2378,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2622,7 +2398,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -2640,7 +2419,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2659,7 +2438,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -2669,8 +2451,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -2682,7 +2468,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2700,16 +2486,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -2738,12 +2524,12 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -2758,7 +2544,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2775,15 +2561,19 @@
               <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Insertion Sort</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -2795,7 +2585,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2831,7 +2621,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2843,7 +2636,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2862,7 +2658,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2898,11 +2694,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-14CC-584A-A8A5-9ED0D12B689E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2918,7 +2709,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2930,7 +2724,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2949,7 +2746,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2985,19 +2782,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-14CC-584A-A8A5-9ED0D12B689E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -3010,7 +2803,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3030,7 +2826,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3047,15 +2843,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -3067,7 +2867,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3087,7 +2887,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -3105,7 +2908,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3132,7 +2935,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3152,7 +2958,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3168,11 +2974,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -3184,7 +2995,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3204,7 +3015,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -3222,7 +3036,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3241,7 +3055,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -3251,8 +3068,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -3264,7 +3085,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3282,16 +3103,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -3320,12 +3141,12 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -3340,7 +3161,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3357,15 +3178,19 @@
               <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Merge Sort</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -3377,7 +3202,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3413,7 +3238,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3425,7 +3253,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3444,7 +3275,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -3480,11 +3311,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A984-C74C-AB00-74A175F36691}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3500,7 +3326,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3512,7 +3341,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3531,7 +3363,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -3567,19 +3399,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A984-C74C-AB00-74A175F36691}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -3592,7 +3420,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3612,7 +3443,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3629,15 +3460,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -3649,7 +3484,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3669,7 +3504,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -3687,7 +3525,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3714,7 +3552,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3734,7 +3575,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3750,11 +3591,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -3766,7 +3612,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3786,7 +3632,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -3804,7 +3653,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3823,7 +3672,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -3833,8 +3685,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -3846,7 +3702,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3864,16 +3720,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -3902,12 +3758,12 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -3922,7 +3778,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3939,15 +3795,19 @@
               <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Merge Sort</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -3959,7 +3819,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3995,7 +3855,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4007,7 +3870,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4026,7 +3892,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -4062,11 +3928,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE37-7D40-BDB1-A7943621B7F2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4082,7 +3943,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4094,7 +3958,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4113,7 +3980,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -4149,19 +4016,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FE37-7D40-BDB1-A7943621B7F2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -4174,7 +4037,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4194,7 +4060,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4211,15 +4077,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -4231,7 +4101,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4251,7 +4121,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -4269,7 +4142,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4296,7 +4169,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4316,7 +4192,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4332,11 +4208,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -4348,7 +4229,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4368,7 +4249,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -4386,7 +4270,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4405,7 +4289,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -4415,8 +4302,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -4428,7 +4319,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4446,16 +4337,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -4484,12 +4375,12 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -4504,7 +4395,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4521,15 +4412,19 @@
               <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Merge Sort</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -4541,7 +4436,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4577,7 +4472,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4589,7 +4487,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4608,7 +4509,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -4644,11 +4545,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4664,7 +4560,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4676,7 +4575,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4695,7 +4597,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -4731,19 +4633,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -4756,7 +4654,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4776,7 +4677,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4793,15 +4694,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -4813,7 +4718,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4833,7 +4738,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -4851,7 +4759,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4878,7 +4786,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4898,7 +4809,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4914,11 +4825,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -4930,7 +4846,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4950,7 +4866,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -4968,7 +4887,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4987,7 +4906,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -4997,8 +4919,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -5010,7 +4936,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5028,16 +4954,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -5066,12 +4992,12 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -5086,7 +5012,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5102,11 +5028,16 @@
               <a:rPr lang="en-US" b="1"/>
               <a:t>Comparación de tiempos de ejecucion para Quick Sort</a:t>
             </a:r>
+            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -5118,7 +5049,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5154,7 +5085,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5166,7 +5100,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5185,7 +5122,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -5221,11 +5158,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80E6-4C96-B542-B32CC3AB919F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5241,7 +5173,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5253,7 +5188,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5272,7 +5210,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -5308,19 +5246,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-80E6-4C96-B542-B32CC3AB919F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -5333,7 +5267,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5353,7 +5290,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5370,15 +5307,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -5390,7 +5331,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5410,7 +5351,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -5428,7 +5372,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5455,7 +5399,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5475,7 +5422,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5491,11 +5438,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -5507,7 +5459,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5527,7 +5479,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -5545,7 +5500,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5564,7 +5519,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -5574,8 +5532,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -5587,7 +5549,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5605,16 +5567,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -5643,12 +5605,12 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -5663,7 +5625,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5680,15 +5642,19 @@
               <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> los mejores ordenamientos</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -5700,7 +5666,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5731,12 +5697,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Algoritmo iterativo (especificar) </c:v>
+                  <c:v xml:space="preserve">Algoritmo iterativo (especificar) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -5748,7 +5717,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5767,7 +5739,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -5803,11 +5775,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-593D-443F-9CD6-04EF414BEDDD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5823,7 +5790,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -5835,7 +5805,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5854,7 +5827,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -5890,19 +5863,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-593D-443F-9CD6-04EF414BEDDD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -5915,7 +5884,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5935,7 +5907,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5952,15 +5924,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -5972,7 +5948,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5992,7 +5968,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -6010,7 +5989,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6037,7 +6016,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -6057,7 +6039,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6073,11 +6055,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -6089,7 +6076,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6109,7 +6096,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -6127,7 +6117,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6146,7 +6136,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -6156,8 +6149,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -6169,7 +6166,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6187,16 +6184,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -6556,7 +6553,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6568,7 +6565,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6579,16 +6579,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -6602,7 +6605,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6614,7 +6617,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6626,7 +6629,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -6639,7 +6645,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -6673,7 +6679,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6693,7 +6702,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6701,7 +6713,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6711,7 +6722,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6730,7 +6744,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -6742,7 +6759,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6751,7 +6768,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -6776,7 +6796,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6795,7 +6818,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6814,7 +6840,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -6828,7 +6857,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6847,7 +6879,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6866,7 +6901,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6885,7 +6923,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6907,9 +6948,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6917,7 +6958,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6935,7 +6976,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -6944,7 +6985,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6966,7 +7010,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6977,7 +7021,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6996,7 +7043,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -7005,7 +7052,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -7030,7 +7080,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7041,7 +7094,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -7050,13 +7103,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -7072,7 +7129,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7084,7 +7141,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7095,16 +7155,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -7118,7 +7181,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7130,7 +7193,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7142,7 +7205,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -7155,7 +7221,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -7189,7 +7255,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7209,7 +7278,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7217,7 +7289,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7227,7 +7298,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7246,7 +7320,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -7258,7 +7335,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -7267,7 +7344,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -7292,7 +7372,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7311,7 +7394,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7330,7 +7416,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -7344,7 +7433,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7363,7 +7455,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7382,7 +7477,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7401,7 +7499,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7423,9 +7524,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7433,7 +7534,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7451,7 +7552,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -7460,7 +7561,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7482,7 +7586,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7493,7 +7597,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7512,7 +7619,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -7521,7 +7628,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -7546,7 +7656,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7557,7 +7670,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -7566,13 +7679,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -7588,7 +7705,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7600,7 +7717,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7611,16 +7731,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -7634,7 +7757,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7646,7 +7769,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7658,7 +7781,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -7671,7 +7797,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -7705,7 +7831,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7725,7 +7854,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7733,7 +7865,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7743,7 +7874,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7762,7 +7896,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -7774,7 +7911,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -7783,7 +7920,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -7808,7 +7948,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7827,7 +7970,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7846,7 +7992,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -7860,7 +8009,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7879,7 +8031,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7898,7 +8053,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7917,7 +8075,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7939,9 +8100,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7949,7 +8110,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7967,7 +8128,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -7976,7 +8137,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7998,7 +8162,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8009,7 +8173,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8028,7 +8195,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -8037,7 +8204,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -8062,7 +8232,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8073,7 +8246,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -8082,13 +8255,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -8104,7 +8281,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -8116,7 +8293,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8127,16 +8307,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -8150,7 +8333,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8162,7 +8345,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -8174,7 +8357,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -8187,7 +8373,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -8221,7 +8407,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8241,7 +8430,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8249,7 +8441,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -8259,7 +8450,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8278,7 +8472,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -8290,7 +8487,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -8299,7 +8496,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -8324,7 +8524,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8343,7 +8546,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8362,7 +8568,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -8376,7 +8585,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8395,7 +8607,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8414,7 +8629,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8433,7 +8651,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8455,9 +8676,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8465,7 +8686,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8483,7 +8704,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -8492,7 +8713,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8514,7 +8738,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8525,7 +8749,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8544,7 +8771,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -8553,7 +8780,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -8578,7 +8808,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8589,7 +8822,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -8598,13 +8831,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -8620,7 +8857,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -8632,7 +8869,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8643,16 +8883,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -8666,7 +8909,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8678,7 +8921,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -8690,7 +8933,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -8703,7 +8949,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -8737,7 +8983,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8757,7 +9006,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8765,7 +9017,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -8775,7 +9026,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8794,7 +9048,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -8806,7 +9063,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -8815,7 +9072,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -8840,7 +9100,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8859,7 +9122,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8878,7 +9144,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -8892,7 +9161,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8911,7 +9183,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8930,7 +9205,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8949,7 +9227,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8971,9 +9252,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8981,7 +9262,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8999,7 +9280,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -9008,7 +9289,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9030,7 +9314,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9041,7 +9325,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9060,7 +9347,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -9069,7 +9356,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -9094,7 +9384,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9105,7 +9398,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -9114,13 +9407,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -9136,7 +9433,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9148,7 +9445,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9159,16 +9459,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -9182,7 +9485,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9194,7 +9497,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -9206,7 +9509,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -9219,7 +9525,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -9253,7 +9559,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9273,7 +9582,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9281,7 +9593,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -9291,7 +9602,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9310,7 +9624,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -9322,7 +9639,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -9331,7 +9648,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -9356,7 +9676,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9375,7 +9698,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9394,7 +9720,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -9408,7 +9737,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9427,7 +9759,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9446,7 +9781,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9465,7 +9803,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9487,9 +9828,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9497,7 +9838,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9515,7 +9856,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -9524,7 +9865,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9546,7 +9890,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9557,7 +9901,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9576,7 +9923,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -9585,7 +9932,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -9610,7 +9960,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9621,7 +9974,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -9630,13 +9983,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -9652,7 +10009,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9664,7 +10021,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9675,16 +10035,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -9698,7 +10061,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9710,7 +10073,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -9722,7 +10085,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -9735,7 +10101,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -9769,7 +10135,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9789,7 +10158,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9797,7 +10169,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -9807,7 +10178,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9826,7 +10200,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -9838,7 +10215,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -9847,7 +10224,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -9872,7 +10252,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9891,7 +10274,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9910,7 +10296,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -9924,7 +10313,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9943,7 +10335,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9962,7 +10357,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -9981,7 +10379,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10003,9 +10404,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -10013,7 +10414,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -10031,7 +10432,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -10040,7 +10441,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10062,7 +10466,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10073,7 +10477,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10092,7 +10499,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -10101,7 +10508,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -10126,7 +10536,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10137,7 +10550,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -10146,13 +10559,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -10168,7 +10585,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -10180,7 +10597,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10191,16 +10611,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -10214,7 +10637,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10226,7 +10649,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -10238,7 +10661,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -10251,7 +10677,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -10285,7 +10711,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10305,7 +10734,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10313,7 +10745,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10323,7 +10754,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10342,7 +10776,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -10354,7 +10791,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -10363,7 +10800,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -10388,7 +10828,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10407,7 +10850,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10426,7 +10872,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -10440,7 +10889,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10459,7 +10911,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10478,7 +10933,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10497,7 +10955,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10519,9 +10980,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -10529,7 +10990,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -10547,7 +11008,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -10556,7 +11017,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10578,7 +11042,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10589,7 +11053,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10608,7 +11075,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -10617,7 +11084,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -10642,7 +11112,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10653,7 +11126,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -10662,136 +11135,30 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C2726E69-05EF-F94F-9733-D104A96D3223}">
-  <sheetPr>
-    <tabColor rgb="FF9EC4F3"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0E13812-9ADD-0F43-92AA-F0B8767B740B}">
-  <sheetPr>
-    <tabColor rgb="FFAEFDF9"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2BF707E0-7C3F-6144-AF44-0208BC1DF2A5}">
-  <sheetPr>
-    <tabColor rgb="FF97F9C0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{88350B94-F1CD-0A46-A75A-91055D876A07}">
-  <sheetPr>
-    <tabColor rgb="FFE5F88A"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{83D92859-590F-6745-B7CA-027B680E4A3C}">
-  <sheetPr>
-    <tabColor rgb="FFEBE97C"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
-  <sheetPr>
-    <tabColor rgb="FFFFC67C"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EF2FF808-7ED0-47FB-B864-504F6F16AA8A}">
-  <sheetPr>
-    <tabColor rgb="FFF7A497"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1BECD7C-0E68-4F70-B3B6-C22C36A0C26A}">
-  <sheetPr>
-    <tabColor rgb="FFF3B2EE"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8676640" cy="6289040"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D27857-DC27-E5E3-A245-FDC02D96740B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10810,21 +11177,15 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8663983" cy="6285424"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29B2B2F-5691-4E94-B8FD-4DF712B95E52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10843,21 +11204,15 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8674100" cy="6286500"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B92FAFC-D92F-CA41-F7D8-F3DEB05B4A38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10876,21 +11231,15 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8674100" cy="6286500"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7882696A-C825-7467-9E8F-207E5A8AB0D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10909,21 +11258,15 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8674100" cy="6286500"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC396501-4E25-E173-ED33-74369A4821CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10942,21 +11285,15 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8674100" cy="6286500"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10975,21 +11312,15 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8674100" cy="6286500"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975A87D5-B644-4CF1-AC85-39B826EC2C02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11008,21 +11339,15 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8674100" cy="6286500"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B0B28A-DE5E-E347-1DCC-EBC3E818A846}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11041,79 +11366,356 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:G10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
-  <autoFilter ref="A2:G10" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="A2:G10">
+  <autoFilter ref="A2:G10">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="22">
-      <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Insertion Sort Array List" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Selection Sort Array List" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{FDF1E40E-ED06-204B-B917-455DE8107EED}" name="Shell Sort Array List" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{E586F32D-4B44-B84C-A99C-280F925FA781}" name="Merge Sort Array List" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{E6C94163-D0DC-9E42-A39F-769A20C92F2E}" name="Quick Sort Array List" dataDxfId="17"/>
+    <tableColumn id="1" name="Porcentaje de la muestra [pct]" dataDxfId="0"/>
+    <tableColumn id="2" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="1"/>
+    <tableColumn id="3" name="Insertion Sort Array List" dataDxfId="2"/>
+    <tableColumn id="4" name="Selection Sort Array List" dataDxfId="3"/>
+    <tableColumn id="5" name="Shell Sort Array List" dataDxfId="4"/>
+    <tableColumn id="6" name="Merge Sort Array List" dataDxfId="5"/>
+    <tableColumn id="7" name="Quick Sort Array List" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:G21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
-  <autoFilter ref="A13:G21" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" displayName="Table13" ref="A13:G21">
+  <autoFilter ref="A13:G21">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="12">
-      <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="2"/>
+    <tableColumn id="1" name="Porcentaje de la muestra [pct]" dataDxfId="7"/>
+    <tableColumn id="2" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="8"/>
+    <tableColumn id="3" name="Insertion Sort Linked List" dataDxfId="9"/>
+    <tableColumn id="4" name="Selection Sort Linked List" dataDxfId="10"/>
+    <tableColumn id="5" name="Shell Sort Linked List" dataDxfId="11"/>
+    <tableColumn id="6" name="Merge Sort Linked List" dataDxfId="12"/>
+    <tableColumn id="7" name="Quick Sort Linked List" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A24:D32" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" displayName="Tabla3" ref="A24:D32">
+  <autoFilter ref="A24:D32">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="7">
-      <calculatedColumnFormula>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCABA3BF-6045-0E48-BB37-6E396D6328EB}" name="Algoritmo iterativo (especificar) " dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D7C2D6B9-4643-7546-86E6-D34E7A0D57D5}" name="Algoritmo recursivo (especificar)" dataDxfId="0"/>
+    <tableColumn id="1" name="Porcentaje de la muestra [pct]" dataDxfId="14"/>
+    <tableColumn id="2" name="Tamaño de la muestra " dataDxfId="15"/>
+    <tableColumn id="3" name="Algoritmo iterativo (Shell) " dataDxfId="16"/>
+    <tableColumn id="4" name="Algoritmo recursivo (Quick)" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -11155,108 +11757,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office 2013 - 2022">
@@ -11264,7 +11772,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11290,7 +11798,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11367,7 +11875,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11398,460 +11906,649 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+    <tabColor theme="2" tint="-0.099978637043366805"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C10" activeCellId="0" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="11" width="24.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="28.83203125"/>
+    <col customWidth="1" min="2" max="2" style="1" width="45.5"/>
+    <col customWidth="1" min="3" max="3" style="1" width="30.6640625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="31.1640625"/>
+    <col customWidth="1" min="5" max="5" style="2" width="24.5"/>
+    <col customWidth="1" min="6" max="11" width="24.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="2" s="5" customFormat="1" ht="28.5">
       <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1">
-      <c r="A3" s="26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B3" s="27">
+    <row r="3" s="5" customFormat="1">
+      <c r="A3" s="9">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="B3" s="10">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="11">
+        <v>0.34000000000000002</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.246</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.217</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.189</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
-      <c r="A4" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" s="5" customFormat="1">
+      <c r="A4" s="14">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B4" s="15">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="16">
+        <v>39.481000000000002</v>
+      </c>
+      <c r="D4" s="16">
+        <v>27.946000000000002</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G4" s="18">
+        <v>2.3039999999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5">
+      <c r="A5" s="14">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="B5" s="15">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="16">
+        <v>140.411</v>
+      </c>
+      <c r="D5" s="16">
+        <v>97.364000000000004</v>
+      </c>
+      <c r="E5" s="17">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="F5" s="17">
+        <v>5.5540000000000003</v>
+      </c>
+      <c r="G5" s="18">
+        <v>6.0780000000000003</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6">
+      <c r="A6" s="14">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="B6" s="15">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="16">
+        <v>587.64200000000005</v>
+      </c>
+      <c r="D6" s="16">
+        <v>399.39999999999998</v>
+      </c>
+      <c r="E6" s="17">
+        <v>40.774999999999999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>13.756</v>
+      </c>
+      <c r="G6" s="18">
+        <v>6.3940000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7">
+      <c r="A7" s="14">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="B7" s="15">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="16">
+        <v>1350.548</v>
+      </c>
+      <c r="D7" s="16">
+        <v>931.77099999999996</v>
+      </c>
+      <c r="E7" s="17">
+        <v>77.001999999999995</v>
+      </c>
+      <c r="F7" s="17">
+        <v>24.829999999999998</v>
+      </c>
+      <c r="G7" s="18">
+        <v>9.8149999999999995</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7">
+    <row r="8">
+      <c r="A8" s="14">
         <v>0.5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="15">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="16">
+        <v>3820.2730000000001</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2634.739</v>
+      </c>
+      <c r="E8" s="17">
+        <v>169.80000000000001</v>
+      </c>
+      <c r="F8" s="17">
+        <v>44.822000000000003</v>
+      </c>
+      <c r="G8" s="18">
+        <v>20.869</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9">
+      <c r="A9" s="14">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="B9" s="15">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="16">
+        <v>10138.18</v>
+      </c>
+      <c r="D9" s="16">
+        <v>7173.5209999999997</v>
+      </c>
+      <c r="E9" s="17">
+        <v>394.351</v>
+      </c>
+      <c r="F9" s="17">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="G9" s="18">
+        <v>42.857999999999997</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10" s="9">
+    <row r="10" ht="16">
+      <c r="A10" s="19">
         <v>1</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="20">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="21">
+        <v>15573.686</v>
+      </c>
+      <c r="D10" s="21">
+        <v>12075.862999999999</v>
+      </c>
+      <c r="E10" s="22">
+        <v>588.15599999999995</v>
+      </c>
+      <c r="F10" s="22">
+        <v>90.611000000000004</v>
+      </c>
+      <c r="G10" s="23">
+        <v>46.710999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11">
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="21"/>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
-      <c r="A13" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="16" t="s">
+    <row r="13" s="5" customFormat="1" ht="28.5">
+      <c r="A13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="F13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="G13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
-      <c r="A14" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="14" s="5" customFormat="1">
+      <c r="A14" s="14">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="B14" s="15">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="16">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.222</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1">
-      <c r="A15" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="B15" s="5">
+    <row r="15" s="5" customFormat="1">
+      <c r="A15" s="14">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B15" s="15">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="8"/>
+      <c r="C15" s="16">
+        <v>33.792999999999999</v>
+      </c>
+      <c r="D15" s="16">
+        <v>47.249000000000002</v>
+      </c>
+      <c r="E15" s="16">
+        <v>124.654</v>
+      </c>
+      <c r="F15" s="17">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="B16" s="5">
+    <row r="16">
+      <c r="A16" s="14">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="B16" s="15">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="8"/>
+      <c r="C16" s="16">
+        <v>94.823999999999998</v>
+      </c>
+      <c r="D16" s="16">
+        <v>160.136</v>
+      </c>
+      <c r="E16" s="16">
+        <v>726.36300000000006</v>
+      </c>
+      <c r="F16" s="17">
+        <v>5.6050000000000004</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="B17" s="5">
+    <row r="17">
+      <c r="A17" s="14">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="B17" s="15">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="8"/>
+      <c r="C17" s="16">
+        <v>391.05099999999999</v>
+      </c>
+      <c r="D17" s="16">
+        <v>655.53800000000001</v>
+      </c>
+      <c r="E17" s="16">
+        <v>4559.0540000000001</v>
+      </c>
+      <c r="F17" s="17">
+        <v>14.176</v>
+      </c>
+      <c r="G17" s="18">
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="B18" s="5">
+    <row r="18">
+      <c r="A18" s="14">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="B18" s="15">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="8"/>
+      <c r="C18" s="16">
+        <v>918.79300000000001</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1488.8979999999999</v>
+      </c>
+      <c r="E18" s="16">
+        <v>13722.682000000001</v>
+      </c>
+      <c r="F18" s="17">
+        <v>23.414999999999999</v>
+      </c>
+      <c r="G18" s="18">
+        <v>8.952</v>
+      </c>
+      <c r="H18" s="30"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="7">
+    <row r="19">
+      <c r="A19" s="14">
         <v>0.5</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="15">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="8"/>
+      <c r="C19" s="16">
+        <v>2613.3229999999999</v>
+      </c>
+      <c r="D19" s="16">
+        <v>4289.2060000000001</v>
+      </c>
+      <c r="E19" s="16">
+        <v>61388.364999999998</v>
+      </c>
+      <c r="F19" s="17">
+        <v>48.386000000000003</v>
+      </c>
+      <c r="G19" s="18">
+        <v>22.152999999999999</v>
+      </c>
+      <c r="H19" s="30"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="B20" s="5">
+    <row r="20">
+      <c r="A20" s="14">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="B20" s="15">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="8"/>
+      <c r="C20" s="16">
+        <v>7216.6970000000001</v>
+      </c>
+      <c r="D20" s="16">
+        <v>11554.502</v>
+      </c>
+      <c r="E20" s="16">
+        <v>234149.50099999999</v>
+      </c>
+      <c r="F20" s="17">
+        <v>70.450000000000003</v>
+      </c>
+      <c r="G20" s="18">
+        <v>35.390000000000001</v>
+      </c>
+      <c r="H20" s="30"/>
     </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1">
-      <c r="A21" s="9">
+    <row r="21" ht="16">
+      <c r="A21" s="19">
         <v>1</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="20">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="8"/>
+      <c r="C21" s="21">
+        <v>11970.927</v>
+      </c>
+      <c r="D21" s="21">
+        <v>18755.973000000002</v>
+      </c>
+      <c r="E21" s="21">
+        <v>378520.13500000001</v>
+      </c>
+      <c r="F21" s="22">
+        <v>89.662999999999997</v>
+      </c>
+      <c r="G21" s="23">
+        <v>47.728999999999999</v>
+      </c>
+      <c r="H21" s="30"/>
     </row>
-    <row r="22" spans="1:8" ht="16" thickBot="1"/>
-    <row r="23" spans="1:8">
+    <row r="22" ht="16"/>
+    <row r="23">
       <c r="A23" s="31" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1" thickBot="1">
-      <c r="A24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>4</v>
+    <row r="24" ht="39" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B25" s="12">
-        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
+    <row r="25">
+      <c r="A25" s="35">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="B25" s="36">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="17">
+        <v>0.246</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.189</v>
+      </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="B26" s="5">
-        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
+    <row r="26">
+      <c r="A26" s="37">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B26" s="15">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="17">
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2.3039999999999998</v>
+      </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="B27" s="12">
-        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
+    <row r="27">
+      <c r="A27" s="35">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="B27" s="36">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="17">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="D27" s="17">
+        <v>6.0780000000000003</v>
+      </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="B28" s="5">
-        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
+    <row r="28">
+      <c r="A28" s="37">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="B28" s="15">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="17">
+        <v>40.774999999999999</v>
+      </c>
+      <c r="D28" s="17">
+        <v>6.3940000000000001</v>
+      </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="B29" s="12">
-        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
+    <row r="29">
+      <c r="A29" s="35">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="B29" s="36">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="17">
+        <v>77.001999999999995</v>
+      </c>
+      <c r="D29" s="17">
+        <v>9.8149999999999995</v>
+      </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="19">
+    <row r="30">
+      <c r="A30" s="37">
         <v>0.5</v>
       </c>
-      <c r="B30" s="5">
-        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
+      <c r="B30" s="15">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="17">
+        <v>169.80000000000001</v>
+      </c>
+      <c r="D30" s="17">
+        <v>20.869</v>
+      </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="B31" s="12">
-        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
+    <row r="31">
+      <c r="A31" s="35">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="B31" s="36">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="17">
+        <v>394.351</v>
+      </c>
+      <c r="D31" s="17">
+        <v>42.857999999999997</v>
+      </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="19">
+    <row r="32">
+      <c r="A32" s="37">
         <v>1</v>
       </c>
-      <c r="B32" s="5">
-        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
+      <c r="B32" s="15">
+        <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="17">
+        <v>588.15599999999995</v>
+      </c>
+      <c r="D32" s="17">
+        <v>46.710999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -11860,129 +12557,183 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF9EC4F3"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFAEFDF9"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF97F9C0"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFE5F88A"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFEBE97C"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC67C"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFF7A497"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFF3B2EE"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12231,10 +12982,143 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12251,20 +13135,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -77,10 +77,10 @@
     <t xml:space="preserve">Tamaño de la muestra </t>
   </si>
   <si>
-    <t xml:space="preserve">Algoritmo iterativo (Shell) </t>
+    <t xml:space="preserve">Algoritmo iterativo (Shell) Array List</t>
   </si>
   <si>
-    <t xml:space="preserve">Algoritmo recursivo (Quick)</t>
+    <t xml:space="preserve">Algoritmo recursivo (Quick) Array List</t>
   </si>
 </sst>
 </file>
@@ -3179,7 +3179,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> Merge Sort</a:t>
+              <a:t> Selection Sort</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3796,7 +3796,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> Merge Sort</a:t>
+              <a:t> Shell Sort</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -11424,8 +11424,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Porcentaje de la muestra [pct]" dataDxfId="14"/>
     <tableColumn id="2" name="Tamaño de la muestra " dataDxfId="15"/>
-    <tableColumn id="3" name="Algoritmo iterativo (Shell) " dataDxfId="16"/>
-    <tableColumn id="4" name="Algoritmo recursivo (Quick)" dataDxfId="17"/>
+    <tableColumn id="3" name="Algoritmo iterativo (Shell) Array List" dataDxfId="16"/>
+    <tableColumn id="4" name="Algoritmo recursivo (Quick) Array List" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
